--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1082231.583609215</v>
+        <v>1084474.403786009</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>35.1845461973512</v>
+        <v>35.18454619735122</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>46.38724422570588</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.51252900994976</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>1.170977004479153</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>36.40077093850605</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,7 +990,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3964136213923</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1266,7 +1266,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>149.3442691106105</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>149.3442691106105</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,13 +1464,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>33.51003907654569</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>21.85442600983729</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,10 +1701,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>57.51742382729044</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>3.26531605719669</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>39.77286532336502</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>84.97365353379641</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>166.1199809871572</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,25 +2163,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>123.4225424657643</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2214,13 +2214,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>132.1650052697847</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,70 +2315,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.234466016111838</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>156.4327184930647</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>89.93607067950306</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2567,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>193.4616495665634</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,26 +2789,26 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>11.19305615617957</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>167.0383293154539</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>145.4287699906872</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,14 +3080,14 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>164.1746559739602</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>121.7911906719549</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>157.0936159469526</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>83.81476128364187</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3509,58 +3509,58 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110.1497834296626</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>4.212569466204179</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4455528613838208</v>
+        <v>13.4306303458425</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>241.0142888776591</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>11.0305580089168</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,67 +4135,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>105.9439968277793</v>
       </c>
       <c r="F2" t="n">
-        <v>51.89093722176944</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G2" t="n">
         <v>16.35099156787933</v>
@@ -4328,22 +4328,22 @@
         <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064624</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M2" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="N2" t="n">
         <v>108.0953086000985</v>
       </c>
-      <c r="M2" t="n">
-        <v>161.0727123199488</v>
-      </c>
-      <c r="N2" t="n">
-        <v>214.050116039799</v>
-      </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4367,13 +4367,13 @@
         <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="X2" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="Y2" t="n">
         <v>159.9970564337892</v>
-      </c>
-      <c r="X2" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581695</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581695</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024826</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0953086000985</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199488</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P3" t="n">
         <v>214.050116039799</v>
@@ -4431,28 +4431,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>59.08819457959156</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581695</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4480,16 +4480,16 @@
         <v>136.0643627756056</v>
       </c>
       <c r="H4" t="n">
-        <v>82.01130316959575</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
-        <v>27.95824356358589</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
         <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>4.281002320795981</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4610,7 +4610,7 @@
         <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.0361258579891</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C6" t="n">
-        <v>655.0361258579891</v>
+        <v>657.9038335500135</v>
       </c>
       <c r="D6" t="n">
-        <v>506.1017161967378</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1017161967378</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5671582236228</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8363328062383</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4650,10 +4650,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4686,10 +4686,10 @@
         <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>655.0361258579891</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.0361258579891</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6192102101089</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C8" t="n">
-        <v>223.6192102101089</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.6192102101089</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4914,13 +4914,13 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>336.430889791532</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>336.430889791532</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>336.430889791532</v>
       </c>
       <c r="X9" t="n">
         <v>336.430889791532</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C11" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D11" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C11" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D11" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
         <v>262.7299197543128</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>512.8480801015824</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C12" t="n">
-        <v>338.3950508204554</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D12" t="n">
-        <v>338.3950508204554</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>338.3950508204554</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>191.8604928473403</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>53.12966742995584</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,16 +5124,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W12" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X12" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y12" t="n">
-        <v>512.8480801015824</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5221,28 +5221,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>509.4769954460863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C14" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>509.4769954460863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F14" t="n">
-        <v>487.4018176583718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5303,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>509.4769954460863</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y14" t="n">
-        <v>509.4769954460863</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.8705608694022</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C15" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D15" t="n">
-        <v>612.9361512081509</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E15" t="n">
-        <v>453.6986962026954</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F15" t="n">
-        <v>307.1641382295804</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G15" t="n">
-        <v>168.4333128121959</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5358,22 +5358,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5385,22 +5385,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>22.57944215788615</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8825440728938</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>712.7511606524439</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U17" t="n">
-        <v>509.4769954460863</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V17" t="n">
-        <v>266.0282188019862</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.57944215788615</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>521.6723209211027</v>
       </c>
     </row>
     <row r="19">
@@ -5692,7 +5692,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.334904905842</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C21" t="n">
-        <v>110.334904905842</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D21" t="n">
-        <v>110.334904905842</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>110.334904905842</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>353.783681549942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>353.783681549942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>110.334904905842</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>110.334904905842</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y21" t="n">
-        <v>110.334904905842</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5938,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
         <v>168.215552771464</v>
@@ -6075,10 +6075,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>806.0443085479446</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>806.0443085479446</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>577.8206902843338</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>342.668582052591</v>
+        <v>168.215552771464</v>
       </c>
       <c r="W24" t="n">
-        <v>342.668582052591</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X24" t="n">
-        <v>342.668582052591</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y24" t="n">
-        <v>342.668582052591</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="25">
@@ -6166,19 +6166,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>768.6413478676429</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>768.6413478676429</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>768.6413478676429</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W27" t="n">
-        <v>525.1925712235429</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>317.3410710180102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,28 +6482,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>942.6594228129348</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C30" t="n">
         <v>110.334904905842</v>
@@ -6552,40 +6552,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>817.1594080452955</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>588.9357897816847</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>353.783681549942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>110.334904905842</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.334904905842</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="31">
@@ -6649,13 +6649,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W32" t="n">
-        <v>506.1786963984129</v>
-      </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>485.4562706347935</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C33" t="n">
-        <v>485.4562706347935</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D33" t="n">
-        <v>485.4562706347935</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>485.4562706347935</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>485.4562706347935</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y33" t="n">
-        <v>485.4562706347935</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="34">
@@ -6883,19 +6883,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>463.7839815061678</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C36" t="n">
-        <v>463.7839815061678</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D36" t="n">
-        <v>463.7839815061678</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W36" t="n">
-        <v>879.3957804766545</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X36" t="n">
-        <v>671.5442802711217</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y36" t="n">
-        <v>463.7839815061678</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="37">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y39" t="n">
-        <v>304.9965798960495</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
         <v>829.5248650203655</v>
@@ -7375,7 +7375,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7442,19 +7442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X41" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W41" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>304.9965798960495</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="C42" t="n">
-        <v>304.9965798960495</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="D42" t="n">
-        <v>304.9965798960495</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7500,7 +7500,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
         <v>781.4136778972854</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
         <v>262.7299197543128</v>
@@ -7673,25 +7673,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>343.4227147053767</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C45" t="n">
-        <v>168.9696854242497</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7731,13 +7731,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
         <v>712.019119383956</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>562.4161926976942</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>562.4161926976942</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>354.5646924921614</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>354.5646924921614</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
         <v>829.5248650203655</v>
@@ -7843,13 +7843,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065407</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000684</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8781,10 +8781,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,10 +10437,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11148,10 +11148,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,16 +11379,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D11" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
@@ -23300,13 +23300,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23337,13 +23337,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23352,13 +23352,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>78.72540515995078</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,19 +23495,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>385.0216197318741</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,13 +23552,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>367.9216046054329</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,10 +23589,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>54.71802040920602</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23625,7 +23625,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23747,13 +23747,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>207.2105735132092</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,22 +23777,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>110.0962526177847</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,22 +23811,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>27.26179070270005</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>34.04474770766441</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23932,10 +23932,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23972,13 +23972,13 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23987,7 +23987,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24014,13 +24014,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>98.1469632631722</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,25 +24051,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>24.02252309887449</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24102,13 +24102,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>93.77637681119015</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,10 +24224,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,19 +24254,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>15.25045261077315</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>142.8645164699222</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>118.95067573846</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24455,16 +24455,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>6.703079128258253</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>138.6760617849701</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>5.670169672861817</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>54.73595870413436</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>2.358527675907141</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>23.278021721429</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,13 +25053,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25217,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>15.61488304136316</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25248,7 +25248,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>167.8802218772777</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,19 +25436,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,16 +25524,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>247.4824136947154</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25682,10 +25682,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V41" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25713,7 +25713,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.1995275940171</v>
+        <v>144.2144501095584</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,10 +25831,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25865,10 +25865,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>140.9160811946027</v>
@@ -25913,13 +25913,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>17.05674718752553</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.5026256409505</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>62.92434029420124</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,25 +25992,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>424126.5295704005</v>
+        <v>424126.5295704006</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424126.5295704005</v>
+        <v>424126.5295704006</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>424126.5295704005</v>
+        <v>424126.5295704004</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424126.5295704005</v>
+        <v>424126.5295704006</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>424126.5295704006</v>
+        <v>424126.5295704005</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26314,10 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>216008.8742907321</v>
@@ -26332,10 +26332,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="I2" t="n">
+        <v>216008.8742907321</v>
+      </c>
+      <c r="J2" t="n">
         <v>216008.874290732</v>
-      </c>
-      <c r="J2" t="n">
-        <v>216008.8742907321</v>
       </c>
       <c r="K2" t="n">
         <v>216008.8742907321</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372582.7489805099</v>
+        <v>372380.6912773507</v>
       </c>
       <c r="C4" t="n">
-        <v>337975.1359319392</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>337975.1359319392</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="F4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="G4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="I4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="L4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="M4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="N4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="P4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.58249917302</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106279.9604080681</v>
+        <v>106482.0181112273</v>
       </c>
       <c r="C6" t="n">
-        <v>86844.42352941533</v>
+        <v>87121.44932772196</v>
       </c>
       <c r="D6" t="n">
-        <v>147420.7457160833</v>
+        <v>147697.7715143902</v>
       </c>
       <c r="E6" t="n">
-        <v>142325.5972294906</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="F6" t="n">
-        <v>142325.5972294907</v>
+        <v>142602.6230277975</v>
       </c>
       <c r="G6" t="n">
-        <v>142325.5972294907</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="H6" t="n">
-        <v>142325.5972294906</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="I6" t="n">
-        <v>142325.5972294906</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="J6" t="n">
-        <v>128324.3650892114</v>
+        <v>128601.390887518</v>
       </c>
       <c r="K6" t="n">
-        <v>94068.644295858</v>
+        <v>94345.67009416482</v>
       </c>
       <c r="L6" t="n">
-        <v>142325.5972294906</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="M6" t="n">
-        <v>142325.5972294907</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="N6" t="n">
-        <v>142325.5972294907</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="O6" t="n">
-        <v>142325.5972294906</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="P6" t="n">
-        <v>142325.5972294906</v>
+        <v>142602.6230277974</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>120.1459394241614</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>125.295926878132</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7146434974898</v>
+        <v>161.0561955029604</v>
       </c>
       <c r="I4" t="n">
         <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>92.18820311219362</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>136.3077280498097</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.839030615104122</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27792,7 +27792,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>24.98494807699674</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>186.5164278032447</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>76.59711297036429</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>56.42871609286695</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.05569651810563</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994976</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994976</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="N3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="O3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="P3" t="n">
         <v>51.35040662570938</v>
-      </c>
-      <c r="L3" t="n">
-        <v>53.51252900994976</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>53.51252900994976</v>
-      </c>
-      <c r="P3" t="n">
-        <v>53.51252900994976</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,7 +35492,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35501,10 +35501,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N15" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,10 +37157,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37394,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37868,10 +37868,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1084474.403786009</v>
+        <v>1086798.075599877</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6439919.049618737</v>
+        <v>6439919.049618736</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>35.18454619735122</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>46.38724422570588</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,55 +834,55 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>26.16190956546853</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="J4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>25.38549803435386</v>
       </c>
       <c r="C6" t="n">
-        <v>36.40077093850605</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>183.8458365031448</v>
       </c>
       <c r="U9" t="n">
-        <v>149.3442691106105</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>241.0142888776591</v>
@@ -1379,64 +1381,64 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>106.7776990973757</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,16 +1463,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E14" t="n">
         <v>241.0142888776591</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1859,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.77286532336502</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>29.90723668598428</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1941,10 +1943,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>166.1199809871572</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2026,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>110.8731063230731</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>123.4225424657643</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>62.86349518004441</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,31 +2317,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>121.6891056856135</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>89.93607067950306</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2600,20 +2602,20 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>112.3289263072337</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>32.76344775028776</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2873,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>167.0383293154539</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2889,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>1.944519418634053</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>164.1746559739602</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>157.0936159469526</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3506,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>71.44610599702098</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>4.212569466204179</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3737,14 +3739,14 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>13.4306303458425</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>95.54537783390994</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4062,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>19.65936777363407</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>49.31110394229523</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="F2" t="n">
-        <v>51.89093722176946</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4349,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="X2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
         <v>5.035134973581694</v>
@@ -4431,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G5" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694.6722890434539</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="C6" t="n">
-        <v>657.9038335500135</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="8">
@@ -4781,10 +4783,10 @@
         <v>761.6974622895962</v>
       </c>
       <c r="C8" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>761.6974622895962</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
         <v>518.2486856454962</v>
@@ -4847,7 +4849,7 @@
         <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.215552771464</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,10 +4889,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="U9" t="n">
-        <v>336.430889791532</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="V9" t="n">
-        <v>336.430889791532</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="W9" t="n">
-        <v>336.430889791532</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="X9" t="n">
-        <v>336.430889791532</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="Y9" t="n">
-        <v>336.430889791532</v>
+        <v>677.1847609088302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.4702815141908</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C12" t="n">
-        <v>689.4702815141908</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,16 +5126,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>621.8469951458151</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>689.4702815141908</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5311,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>901.2946886937524</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>726.8416594126254</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5460,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>923.8825440728938</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>712.7511606524439</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>521.6723209211027</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C18" t="n">
-        <v>521.6723209211027</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D18" t="n">
-        <v>521.6723209211027</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>521.6723209211027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>521.6723209211027</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K19" t="n">
         <v>19.28114311021272</v>
@@ -5692,31 +5694,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>700.6811714053606</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>588.4532163200711</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.215552771464</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>447.97144466011</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>288.7339896546545</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>142.1994316815395</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>168.215552771464</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="25">
@@ -6166,28 +6168,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>479.7536884346249</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
         <v>656.0584510084244</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>930.9627638436789</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>930.9627638436789</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>930.9627638436789</v>
       </c>
       <c r="V27" t="n">
-        <v>23.90796037760316</v>
+        <v>930.9627638436789</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5139871995789</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>687.5139871995789</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>479.7536884346249</v>
       </c>
     </row>
     <row r="28">
@@ -6403,19 +6405,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6496,19 @@
         <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>279.0604900729671</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>655.0361258579891</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y30" t="n">
-        <v>447.2758270930352</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.203140025706</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6880,22 +6882,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>735.8335372470253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7025,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W36" t="n">
-        <v>735.8335372470253</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X36" t="n">
-        <v>735.8335372470253</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y36" t="n">
-        <v>735.8335372470253</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="37">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,10 +7256,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
         <v>304.2053859195205</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>395.2567788952347</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
         <v>829.5248650203655</v>
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
         <v>19.28114311021272</v>
@@ -7433,25 +7435,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
         <v>262.7299197543128</v>
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>318.8669524321267</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="C42" t="n">
-        <v>318.8669524321267</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D42" t="n">
-        <v>318.8669524321267</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E42" t="n">
-        <v>305.3006591534979</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F42" t="n">
-        <v>158.7661011803829</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7497,43 +7499,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="V42" t="n">
-        <v>526.7184526376595</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="W42" t="n">
-        <v>526.7184526376595</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="X42" t="n">
-        <v>318.8669524321267</v>
+        <v>592.9597988536757</v>
       </c>
       <c r="Y42" t="n">
-        <v>318.8669524321267</v>
+        <v>592.9597988536757</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
         <v>19.28114311021272</v>
@@ -7667,28 +7669,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
         <v>262.7299197543128</v>
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.84447166430675</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="C45" t="n">
-        <v>69.84447166430675</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="D45" t="n">
-        <v>69.84447166430675</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="E45" t="n">
-        <v>69.84447166430675</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F45" t="n">
-        <v>69.84447166430675</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>69.84447166430675</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,16 +7736,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X45" t="n">
-        <v>277.6047704292607</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.84447166430675</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8535,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9258,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11145,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>113.6687527430239</v>
@@ -23267,10 +23269,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>59.75548455249167</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23349,16 +23351,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E14" t="n">
         <v>140.9160811946027</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23549,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>367.9216046054329</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23747,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.0962526177847</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23792,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>142.8012623023315</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23829,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>34.04474770766441</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>68.91450442245211</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23914,7 +23916,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>98.1469632631722</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,19 +24050,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>24.02252309887449</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24096,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>137.3012335147772</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,31 +24205,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>15.65441147759714</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>142.8645164699222</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24488,19 +24490,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>215.4233321629012</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,10 +24533,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>138.9197233535501</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24734,10 +24736,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24761,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>5.670169672861817</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24777,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24819,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>203.8284657848434</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,13 +24970,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.358527675907141</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>15.61488304136316</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25394,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>95.08707765284636</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>247.4824136947154</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25673,28 +25675,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,25 +25709,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>144.2144501095584</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>104.6193508609117</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>17.05674718752553</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25950,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>137.9857126817669</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>62.92434029420124</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424126.5295704006</v>
+        <v>424126.5295704005</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>424126.5295704005</v>
+        <v>424126.5295704004</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>424126.5295704004</v>
+        <v>424126.5295704006</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>424126.5295704005</v>
+        <v>424126.5295704006</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>424126.5295704006</v>
+        <v>424126.5295704004</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424126.5295704005</v>
+        <v>424126.5295704006</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424126.5295704006</v>
+        <v>424126.5295704005</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>216008.8742907321</v>
@@ -26329,13 +26331,13 @@
         <v>216008.8742907321</v>
       </c>
       <c r="H2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="I2" t="n">
         <v>216008.8742907321</v>
       </c>
       <c r="J2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="K2" t="n">
         <v>216008.8742907321</v>
@@ -26350,7 +26352,7 @@
         <v>216008.8742907321</v>
       </c>
       <c r="O2" t="n">
-        <v>216008.874290732</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="P2" t="n">
         <v>216008.8742907321</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372380.6912773507</v>
+        <v>372380.6912773508</v>
       </c>
       <c r="C4" t="n">
         <v>337698.1101336324</v>
@@ -26424,7 +26426,7 @@
         <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="F4" t="n">
         <v>58752.58249917302</v>
@@ -26433,7 +26435,7 @@
         <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="I4" t="n">
         <v>58752.58249917302</v>
@@ -26442,10 +26444,10 @@
         <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="L4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
         <v>58752.58249917302</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106482.0181112273</v>
+        <v>106482.0181112272</v>
       </c>
       <c r="C6" t="n">
-        <v>87121.44932772196</v>
+        <v>87121.44932772184</v>
       </c>
       <c r="D6" t="n">
-        <v>147697.7715143902</v>
+        <v>147697.7715143903</v>
       </c>
       <c r="E6" t="n">
         <v>142602.6230277974</v>
       </c>
       <c r="F6" t="n">
-        <v>142602.6230277975</v>
+        <v>142602.6230277974</v>
       </c>
       <c r="G6" t="n">
         <v>142602.6230277974</v>
       </c>
       <c r="H6" t="n">
-        <v>142602.6230277974</v>
+        <v>142602.6230277973</v>
       </c>
       <c r="I6" t="n">
         <v>142602.6230277974</v>
       </c>
       <c r="J6" t="n">
-        <v>128601.390887518</v>
+        <v>128601.3908875181</v>
       </c>
       <c r="K6" t="n">
-        <v>94345.67009416482</v>
+        <v>94345.6700941648</v>
       </c>
       <c r="L6" t="n">
         <v>142602.6230277974</v>
@@ -27391,13 +27393,13 @@
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>380.1181913177838</v>
+        <v>390.1088905323286</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.1459394241614</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27503,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>125.295926878132</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>198.1824541509698</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>260.3610887711225</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>141.1476856155135</v>
       </c>
       <c r="C6" t="n">
-        <v>136.3077280498097</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266979</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27792,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="9">
@@ -27935,25 +27937,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>16.31889219167681</v>
       </c>
       <c r="U9" t="n">
-        <v>76.59711297036429</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -35018,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35978,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37391,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,10 +37867,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
